--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T22:47:26+00:00</t>
+    <t>2022-07-21T02:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T02:38:40+00:00</t>
+    <t>2022-07-22T12:50:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T12:50:03+00:00</t>
+    <t>2022-07-25T13:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:41:20+00:00</t>
+    <t>2022-07-26T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:48:24+00:00</t>
+    <t>2022-07-29T00:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T00:48:21+00:00</t>
+    <t>2022-08-01T01:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/ValueSet-jp-allergyintolerance-codes-medicine-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T01:14:07+00:00</t>
+    <t>2022-08-01T09:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
